--- a/DATA_goal/Junction_Flooding_326.xlsx
+++ b/DATA_goal/Junction_Flooding_326.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45007.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.78</v>
+        <v>17.78</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.78</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.78</v>
+        <v>37.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.99</v>
+        <v>29.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.36</v>
+        <v>43.56</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.15</v>
+        <v>21.52</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.9</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.3</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.49</v>
+        <v>14.88</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.55</v>
+        <v>15.46</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.46</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.91</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.35</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.44</v>
+        <v>204.37</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.86</v>
+        <v>38.64</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.84</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.53</v>
+        <v>25.29</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.83</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.22</v>
+        <v>22.23</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.33</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.14</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.88</v>
+        <v>38.83</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.61</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45007.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.5</v>
+        <v>5.05</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.35</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.89</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.77</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.88</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.57</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>2.14</v>
+        <v>21.4</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.71</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.83</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.88</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.31</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45007.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.89</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.72</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.23</v>
+        <v>32.32</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.61</v>
+        <v>26.11</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.14</v>
+        <v>41.44</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.8</v>
+        <v>18.03</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.86</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.16</v>
+        <v>11.57</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.3</v>
+        <v>12.96</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.6</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.64</v>
+        <v>16.44</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>17</v>
+        <v>170.05</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.24</v>
+        <v>32.44</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.16</v>
+        <v>21.59</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.32</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.2</v>
+        <v>1.96</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.05</v>
+        <v>20.47</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1</v>
+        <v>10.02</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.54</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.73</v>
+        <v>37.35</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.6</v>
+        <v>5.97</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45007.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.89</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.84</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.05</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.24</v>
+        <v>32.36</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.63</v>
+        <v>26.26</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.53</v>
+        <v>45.34</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.8</v>
+        <v>18.03</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.79</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>17.01</v>
+        <v>170.08</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.26</v>
+        <v>32.6</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.18</v>
+        <v>21.8</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.4</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.85</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.21</v>
+        <v>22.07</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.49</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.36</v>
+        <v>13.59</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.13</v>
+        <v>41.27</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_326.xlsx
+++ b/DATA_goal/Junction_Flooding_326.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45007.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>17.78</v>
+        <v>17.776</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>11.78</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4</v>
+        <v>4.002</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>37.83</v>
+        <v>37.831</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>29.94</v>
+        <v>29.945</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.99</v>
+        <v>13.989</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>43.56</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>21.52</v>
+        <v>21.524</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.9</v>
+        <v>8.901999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>13.3</v>
+        <v>13.298</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.88</v>
+        <v>14.882</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.46</v>
+        <v>15.457</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.46</v>
+        <v>4.465</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.91</v>
+        <v>13.911</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>19.35</v>
+        <v>19.348</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12</v>
+        <v>12.001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.4</v>
+        <v>3.404</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.23</v>
+        <v>2.232</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>204.37</v>
+        <v>204.374</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>38.64</v>
+        <v>38.641</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>12.84</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>25.29</v>
+        <v>25.287</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.83</v>
+        <v>12.826</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>22.23</v>
+        <v>22.227</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.34</v>
+        <v>11.342</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>10.33</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.14</v>
+        <v>12.137</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.41</v>
+        <v>15.411</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>3.318</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>38.83</v>
+        <v>38.832</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.98</v>
+        <v>6.978</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.05</v>
+        <v>16.052</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45007.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.4</v>
+        <v>2.402</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.08</v>
+        <v>1.083</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.34</v>
+        <v>1.342</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.05</v>
+        <v>5.047</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>3.35</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.89</v>
+        <v>1.893</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.77</v>
+        <v>12.773</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.91</v>
+        <v>2.909</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.07</v>
+        <v>1.075</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.23</v>
+        <v>1.228</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.98</v>
+        <v>1.979</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.92</v>
+        <v>1.918</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.626</v>
       </c>
       <c r="O3" s="4" t="n">
         <v>1.88</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.57</v>
+        <v>2.568</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2</v>
+        <v>1.998</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.42</v>
+        <v>1.418</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.67</v>
+        <v>0.666</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>21.4</v>
+        <v>21.395</v>
       </c>
       <c r="U3" s="4" t="n">
         <v>5.71</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.74</v>
+        <v>1.735</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.47</v>
+        <v>3.475</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.56</v>
+        <v>1.563</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.895</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.83</v>
+        <v>5.834</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.53</v>
+        <v>1.533</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.63</v>
+        <v>1.633</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.88</v>
+        <v>1.877</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.94</v>
+        <v>1.938</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>12.31</v>
+        <v>12.315</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.76</v>
+        <v>0.762</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.18</v>
+        <v>2.176</v>
       </c>
     </row>
     <row r="4">
@@ -863,19 +863,19 @@
         <v>45007.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.89</v>
+        <v>14.893</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.72</v>
+        <v>10.721</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.27</v>
+        <v>1.271</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>32.32</v>
+        <v>32.321</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>26.11</v>
+        <v>26.114</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>11.72</v>
@@ -884,82 +884,82 @@
         <v>41.44</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>18.03</v>
+        <v>18.033</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.86</v>
+        <v>7.858</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.57</v>
+        <v>11.572</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.96</v>
+        <v>12.961</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.6</v>
+        <v>13.598</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.74</v>
+        <v>3.741</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16.44</v>
+        <v>16.443</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.99</v>
+        <v>9.994</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.03</v>
+        <v>1.028</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.782</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>170.05</v>
+        <v>170.047</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>32.44</v>
+        <v>32.441</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.76</v>
+        <v>10.758</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>21.59</v>
+        <v>21.594</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.32</v>
+        <v>11.317</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.96</v>
+        <v>1.962</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>20.47</v>
+        <v>20.469</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.5</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>8.534000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.02</v>
+        <v>10.017</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.54</v>
+        <v>13.541</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>37.35</v>
+        <v>37.349</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.97</v>
+        <v>5.967</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.45</v>
+        <v>13.449</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45007.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>20.25</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.66</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.77</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_326.xlsx
+++ b/DATA_goal/Junction_Flooding_326.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>45007.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.89</v>
+        <v>14.893</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.84</v>
+        <v>10.843</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.05</v>
+        <v>1.055</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>32.36</v>
+        <v>32.356</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>26.26</v>
+        <v>26.264</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>11.72</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>45.34</v>
+        <v>45.341</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.03</v>
+        <v>18.033</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>7.94</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.68</v>
+        <v>11.683</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.98</v>
+        <v>12.984</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.66</v>
+        <v>13.656</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.74</v>
+        <v>3.744</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.53</v>
+        <v>16.527</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.93</v>
+        <v>9.927</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.794</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.676</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>170.08</v>
+        <v>170.076</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>32.6</v>
+        <v>32.605</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.76</v>
+        <v>10.758</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.8</v>
+        <v>21.797</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.4</v>
+        <v>11.403</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.85</v>
+        <v>1.854</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.07</v>
+        <v>22.068</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.5</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.49</v>
+        <v>8.489000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>9.968999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.59</v>
+        <v>13.594</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>41.27</v>
+        <v>41.272</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6</v>
+        <v>6.001</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45007.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>55.66</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.77</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_326.xlsx
+++ b/DATA_goal/Junction_Flooding_326.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>45007.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.893</v>
+        <v>14.89</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.843</v>
+        <v>10.84</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.055</v>
+        <v>1.05</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>32.356</v>
+        <v>32.36</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>26.264</v>
+        <v>26.26</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>11.72</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>45.341</v>
+        <v>45.34</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.033</v>
+        <v>18.03</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>7.94</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.683</v>
+        <v>11.68</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.984</v>
+        <v>12.98</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.656</v>
+        <v>13.66</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.744</v>
+        <v>3.74</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.655</v>
+        <v>11.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.527</v>
+        <v>16.53</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.927</v>
+        <v>9.93</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.794</v>
+        <v>0.79</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.676</v>
+        <v>0.68</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>170.076</v>
+        <v>170.08</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>32.605</v>
+        <v>32.6</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.758</v>
+        <v>10.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.797</v>
+        <v>21.8</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.403</v>
+        <v>11.4</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.854</v>
+        <v>1.85</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.068</v>
+        <v>22.07</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.502000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.489000000000001</v>
+        <v>8.49</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.968999999999999</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.594</v>
+        <v>13.59</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>41.272</v>
+        <v>41.27</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.001</v>
+        <v>6</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45007.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>20.25</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.66</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.77</v>
       </c>
     </row>
   </sheetData>
